--- a/ch4-spreadsheets/res/bills_start.xlsx
+++ b/ch4-spreadsheets/res/bills_start.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\GitHub\computer-apps-primer\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="8265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bills" sheetId="1" r:id="rId1"/>
-    <sheet name="Payroll" sheetId="2" r:id="rId2"/>
+    <sheet name="Payroll" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,61 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Monthly Bills</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Payroll Report</t>
   </si>
@@ -117,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,247 +397,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="14" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>231</v>
-      </c>
-      <c r="C3">
-        <v>312</v>
-      </c>
-      <c r="D3">
-        <v>198</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
-      </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>80</v>
-      </c>
-      <c r="L3">
-        <v>160</v>
-      </c>
-      <c r="M3">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>40</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-      <c r="J4">
-        <v>36</v>
-      </c>
-      <c r="K4">
-        <v>34</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>60</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>60</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>60</v>
-      </c>
-      <c r="L5">
-        <v>60</v>
-      </c>
-      <c r="M5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>224</v>
-      </c>
-      <c r="C6">
-        <v>240</v>
-      </c>
-      <c r="D6">
-        <v>204</v>
-      </c>
-      <c r="E6">
-        <v>190</v>
-      </c>
-      <c r="F6">
-        <v>165</v>
-      </c>
-      <c r="G6">
-        <v>170</v>
-      </c>
-      <c r="H6">
-        <v>230</v>
-      </c>
-      <c r="I6">
-        <v>245</v>
-      </c>
-      <c r="J6">
-        <v>182</v>
-      </c>
-      <c r="K6">
-        <v>170</v>
-      </c>
-      <c r="L6">
-        <v>166</v>
-      </c>
-      <c r="M6">
-        <v>195</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -701,27 +418,27 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>40</v>
@@ -735,7 +452,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
@@ -749,7 +466,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>36</v>
@@ -763,7 +480,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>44</v>
@@ -774,6 +491,14 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
